--- a/剑指Offer(第2版)/剑指 Offer 19 例题解.xlsx
+++ b/剑指Offer(第2版)/剑指 Offer 19 例题解.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A978BBFF-6DE7-4756-AF0E-42C8CDC4960E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F921F78-47E1-4F6F-A1B2-3F11CFB904A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,14 @@
     <t>最终返回dp[11][10] = false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -83,15 +91,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -158,11 +172,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,6 +226,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,20 +517,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:O19"/>
+  <dimension ref="B3:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="1">
+      <c r="E4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="1">
@@ -515,7 +569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
@@ -550,12 +604,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="1">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="1">
@@ -589,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -630,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -671,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -712,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -753,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -794,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -835,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -876,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -917,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -958,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>10</v>
       </c>
